--- a/biology/Biochimie/Adénosine_3',5'-bisphosphate/Adénosine_3',5'-bisphosphate.xlsx
+++ b/biology/Biochimie/Adénosine_3',5'-bisphosphate/Adénosine_3',5'-bisphosphate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosine_3%27,5%27-bisphosphate</t>
+          <t>Adénosine_3',5'-bisphosphate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’adénosine 3',5'-bisphosphate, parfois appelée 3'-phosphoadénosine 5'-phosphate, est un nucléotide phosphorylé à la fois sur les atomes de carbone 3' et 5' du résidu ribose, à la différence de l'adénosine diphosphate (ADP) qui possède un groupement pyrophosphate sur le seul carbone 5' du résidu ribose.
-L'adénosine 3',5'-bisphosphate est produite par des sulfotransférases par transfert du groupe sulfate de la 3'-phosphoadénosine 5'-phosphosulfate (PAPS)[2],[3] :
+L'adénosine 3',5'-bisphosphate est produite par des sulfotransférases par transfert du groupe sulfate de la 3'-phosphoadénosine 5'-phosphosulfate (PAPS), :
 substrat + 3'-phosphoadénosine 5'-phosphosulfate → substrat sulfaté + adénosine 3',5'-bisphosphate.
-Elle est ensuite hydrolysée en AMP par la 3'(2'),5'-bisphosphate nucléotidase[4],[5] (EC 3.1.3.7) :
+Elle est ensuite hydrolysée en AMP par la 3'(2'),5'-bisphosphate nucléotidase, (EC 3.1.3.7) :
 adénosine 3',5'-bisphosphate + H2O → AMP + Pi.</t>
         </is>
       </c>
